--- a/pred_ohlcv/54_21/2020-01-13 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTG ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-881.6728000000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1633.6118</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1603.6118</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1597.7267</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1697.7257</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1610.991</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1510.60288021</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1969.32308021</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1969.26058021</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1981.26058021</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2016.26058021</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2015.26058021</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2073.27058021</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2049.00058021</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1999.00058021</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2006.03688021</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2005.79558021</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2044.758980210001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2045.758980210001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2046.758980210001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2046.038980210001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2046.378480210001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2557.964780210001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-2847.424380210001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2785.186780210001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2882.251780210001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2632.013294870001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-12524.10785088</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-12524.10785088</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-12524.10785088</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-12368.3866861</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-12431.2789861</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-12190.4451861</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-12025.6851861</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-12019.9951861</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-12059.1455861</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-11921.1455861</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11801.3747861</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7627.292304980003</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7794.956204980003</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-4723.356533900001</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4702.114296340001</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4710.473996340001</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-5029.553231790001</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-5039.62233179</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3318.375227020001</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3204.93072702</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-3046.38402702</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-1978.93690249</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1818.50690249</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-1935.60530249</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTG ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1032.5976</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1002.2737</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1633.6118</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1603.6118</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1597.7267</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1697.7257</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1510.60288021</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1541.36288021</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-12524.10785088</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-12368.3866861</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-12431.2789861</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-12190.4451861</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-12025.6851861</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-12025.6851861</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-12019.9951861</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-12071.0426861</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-12059.1455861</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-11921.1455861</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-11946.3255861</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-12004.3616861</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-12104.5243861</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-11866.3253861</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-11555.7778861</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7627.292304980003</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-7604.452404980003</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-7794.956204980003</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-4478.169933900001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-4782.8797339</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5104.3004339</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-4702.114296340001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-4710.473996340001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-5029.553231790001</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-5039.62233179</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-4817.48643179</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3311.89692702</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3318.375227020001</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3123.44882702</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3125.44882702</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3191.21882702</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-3046.38402702</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-3146.25512702</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2995.90770249</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2178.55550249</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-1929.35690249</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-1978.93690249</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1818.50690249</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-1935.60530249</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1620.309702490001</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
